--- a/VT_REG2_TRA_V12.xlsx
+++ b/VT_REG2_TRA_V12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\DemoS_ADV_Stuttgart061118\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\Demo_Adv_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E2C6666-616F-4D86-A87D-147F0235C6F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB220B27-8F3F-4C90-814E-ACAC762D02E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="570" windowWidth="25080" windowHeight="15030" tabRatio="901"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="901" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EB2" sheetId="133" r:id="rId1"/>
@@ -42,12 +42,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="C8" authorId="0" shapeId="0">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -65,14 +65,14 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="J3" authorId="0" shapeId="0">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -186,7 +186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="1" shapeId="0">
+    <comment ref="O3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -212,7 +212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -285,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0">
+    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -338,7 +338,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0">
+    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -371,7 +371,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P13" authorId="2" shapeId="0">
+    <comment ref="P13" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -464,7 +464,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q13" authorId="1" shapeId="0">
+    <comment ref="Q13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -489,7 +489,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R13" authorId="2" shapeId="0">
+    <comment ref="R13" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -552,7 +552,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J14" authorId="2" shapeId="0">
+    <comment ref="J14" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -800,14 +800,14 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="O3" authorId="0" shapeId="0">
+    <comment ref="O3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -921,7 +921,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="1" shapeId="0">
+    <comment ref="T3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -947,7 +947,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U3" authorId="2" shapeId="0">
+    <comment ref="U3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1020,7 +1020,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V3" authorId="2" shapeId="0">
+    <comment ref="V3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1073,7 +1073,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W3" authorId="2" shapeId="0">
+    <comment ref="W3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1106,7 +1106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U10" authorId="2" shapeId="0">
+    <comment ref="U10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1199,7 +1199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V10" authorId="1" shapeId="0">
+    <comment ref="V10" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1224,7 +1224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W10" authorId="2" shapeId="0">
+    <comment ref="W10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1287,7 +1287,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O11" authorId="2" shapeId="0">
+    <comment ref="O11" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1535,7 +1535,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="197">
   <si>
     <t>CommName</t>
   </si>
@@ -1981,9 +1981,6 @@
     <t>Dynamic coefficients for combustion emissions in transport</t>
   </si>
   <si>
-    <t>~COMEMI</t>
-  </si>
-  <si>
     <t>'000 km</t>
   </si>
   <si>
@@ -2120,19 +2117,28 @@
   </si>
   <si>
     <t>~FI_T:COM_FR</t>
+  </si>
+  <si>
+    <t>Techname</t>
+  </si>
+  <si>
+    <t>T*</t>
+  </si>
+  <si>
+    <t>~PRCCOMEMI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="186" formatCode="0.000"/>
-    <numFmt numFmtId="187" formatCode="General_)"/>
-    <numFmt numFmtId="195" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="General_)"/>
+    <numFmt numFmtId="167" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2162,32 +2168,6 @@
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -2654,48 +2634,48 @@
   </borders>
   <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="149">
@@ -2717,33 +2697,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" xfId="11" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="11" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="14" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="15"/>
@@ -2760,83 +2740,83 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="15" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="15" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="29" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="25" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" xfId="11" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="11" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="187" fontId="13" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="23" fillId="11" borderId="0" xfId="12" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="21" fillId="9" borderId="4" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="19" fillId="11" borderId="0" xfId="12" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="17" fillId="9" borderId="4" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="21" fillId="9" borderId="5" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="9" borderId="5" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="21" fillId="9" borderId="6" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="17" fillId="9" borderId="6" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="17" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="17" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="17" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="17" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -2847,30 +2827,30 @@
     <xf numFmtId="2" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="13" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="18" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="3"/>
-    <xf numFmtId="187" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="3"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2878,7 +2858,7 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="17" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2887,32 +2867,32 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="13" fillId="17" borderId="10" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="9" fillId="17" borderId="10" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="17" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="17" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="17" borderId="11" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="17" borderId="11" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="17" borderId="2" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="17" borderId="2" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="23" fillId="11" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="23" fillId="11" borderId="2" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="19" fillId="11" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="19" fillId="11" borderId="2" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="35" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="0" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="29" fillId="14" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="25" fillId="14" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -2925,54 +2905,54 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="15" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="15" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="15" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="23" fillId="11" borderId="16" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="23" fillId="11" borderId="14" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="187" fontId="13" fillId="17" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="11" borderId="16" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="19" fillId="11" borderId="14" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="9" fillId="17" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="29" fillId="14" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="25" fillId="14" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="29" fillId="14" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="25" fillId="14" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="195" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="195" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="195" fontId="26" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="22" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="195" fontId="26" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="22" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2988,44 +2968,44 @@
     <cellStyle name="Accent1" xfId="4" builtinId="29"/>
     <cellStyle name="Accent2" xfId="5" builtinId="33"/>
     <cellStyle name="Calculation" xfId="6" builtinId="22"/>
-    <cellStyle name="Comma 2" xfId="7"/>
-    <cellStyle name="Comma 2 2" xfId="8"/>
-    <cellStyle name="Comma 2 3" xfId="9"/>
-    <cellStyle name="Comma 2 4" xfId="10"/>
+    <cellStyle name="Comma 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Comma 2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Comma 2 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Comma 2 4" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Good" xfId="11" builtinId="26"/>
     <cellStyle name="Input" xfId="12" builtinId="20"/>
-    <cellStyle name="Migliaia_tab emissioni" xfId="13"/>
+    <cellStyle name="Migliaia_tab emissioni" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="Neutral" xfId="14" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="15"/>
-    <cellStyle name="Normal 2" xfId="16"/>
-    <cellStyle name="Normal 2 3" xfId="17"/>
-    <cellStyle name="Normal 4" xfId="18"/>
-    <cellStyle name="Normal 4 2" xfId="19"/>
-    <cellStyle name="Normal 8" xfId="20"/>
-    <cellStyle name="Normal 9 2" xfId="21"/>
-    <cellStyle name="Normale_B2020" xfId="22"/>
+    <cellStyle name="Normal 10" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Normal 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Normal 2 3" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Normal 4" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Normal 4 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Normal 8" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Normal 9 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Normale_B2020" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
     <cellStyle name="Percent" xfId="23" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="24"/>
-    <cellStyle name="Percent 3" xfId="25"/>
-    <cellStyle name="Percent 3 2" xfId="26"/>
-    <cellStyle name="Percent 3 3" xfId="27"/>
-    <cellStyle name="Percent 3 4" xfId="28"/>
-    <cellStyle name="Percent 3 5" xfId="29"/>
-    <cellStyle name="Percent 4" xfId="30"/>
-    <cellStyle name="Percent 4 2" xfId="31"/>
-    <cellStyle name="Percent 4 3" xfId="32"/>
-    <cellStyle name="Percent 4 4" xfId="33"/>
-    <cellStyle name="Percent 4 5" xfId="34"/>
-    <cellStyle name="Percent 5" xfId="35"/>
-    <cellStyle name="Percent 5 2" xfId="36"/>
-    <cellStyle name="Percent 5 3" xfId="37"/>
-    <cellStyle name="Percent 5 4" xfId="38"/>
-    <cellStyle name="Percent 6" xfId="39"/>
-    <cellStyle name="Percent 7" xfId="40"/>
-    <cellStyle name="Percent 8" xfId="41"/>
-    <cellStyle name="Percent 9" xfId="42"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="43"/>
+    <cellStyle name="Percent 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Percent 3" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Percent 3 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Percent 3 3" xfId="27" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Percent 3 4" xfId="28" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Percent 3 5" xfId="29" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Percent 4" xfId="30" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Percent 4 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Percent 4 3" xfId="32" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Percent 4 4" xfId="33" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Percent 4 5" xfId="34" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Percent 5" xfId="35" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Percent 5 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Percent 5 3" xfId="37" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Percent 5 4" xfId="38" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Percent 6" xfId="39" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Percent 7" xfId="40" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Percent 8" xfId="41" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Percent 9" xfId="42" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="43" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4945,13 +4925,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:AA31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D9" sqref="D9:U9"/>
     </sheetView>
   </sheetViews>
@@ -5019,16 +4999,16 @@
         <v>47</v>
       </c>
       <c r="O2" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="P2" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="P2" s="51" t="s">
+      <c r="Q2" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="Q2" s="51" t="s">
+      <c r="R2" s="51" t="s">
         <v>168</v>
-      </c>
-      <c r="R2" s="51" t="s">
-        <v>169</v>
       </c>
       <c r="S2" s="51" t="s">
         <v>48</v>
@@ -5040,11 +5020,11 @@
         <v>50</v>
       </c>
       <c r="V2" s="51" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="X2" s="8"/>
       <c r="Y2" s="50" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z2" s="14" t="s">
         <v>76</v>
@@ -5091,16 +5071,16 @@
         <v>53</v>
       </c>
       <c r="O3" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P3" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q3" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="Q3" s="52" t="s">
+      <c r="R3" s="52" t="s">
         <v>172</v>
-      </c>
-      <c r="R3" s="52" t="s">
-        <v>173</v>
       </c>
       <c r="S3" s="52" t="s">
         <v>54</v>
@@ -5826,7 +5806,7 @@
         <v>89</v>
       </c>
       <c r="C13" s="60" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D13" s="58">
         <f t="shared" ref="D13:V13" si="1">SUM(D5:D12)</f>
@@ -5923,7 +5903,7 @@
     <row r="16" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="C16" s="57" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D16" s="57"/>
       <c r="E16" s="57"/>
@@ -6059,16 +6039,16 @@
         <v>53</v>
       </c>
       <c r="O24" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="P24" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="P24" s="52" t="s">
+      <c r="Q24" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="Q24" s="52" t="s">
+      <c r="R24" s="52" t="s">
         <v>172</v>
-      </c>
-      <c r="R24" s="52" t="s">
-        <v>173</v>
       </c>
       <c r="S24" s="118" t="s">
         <v>54</v>
@@ -6089,7 +6069,7 @@
         <v>66</v>
       </c>
       <c r="C25" s="64" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D25" s="101"/>
       <c r="E25" s="105">
@@ -6133,7 +6113,7 @@
         <v>66</v>
       </c>
       <c r="C26" s="66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D26" s="103"/>
       <c r="E26" s="106">
@@ -6174,7 +6154,7 @@
       <c r="V26" s="55"/>
       <c r="W26" s="8"/>
       <c r="X26" s="63" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
@@ -6233,7 +6213,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:G5"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -6250,12 +6230,12 @@
   <sheetData>
     <row r="3" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="120" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D5" s="121" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E5" s="121"/>
       <c r="F5" s="121"/>
@@ -6269,7 +6249,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:R36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -6619,7 +6599,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="86" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F13" s="83" t="s">
         <v>125</v>
@@ -6669,7 +6649,7 @@
         <v>33</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F14" s="20" t="s">
         <v>34</v>
@@ -6678,7 +6658,7 @@
         <v>90</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J14" s="133" t="s">
         <v>38</v>
@@ -7162,13 +7142,13 @@
     <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" s="54"/>
       <c r="C35" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36" s="74"/>
       <c r="C36" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -7180,7 +7160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -7361,7 +7341,7 @@
         <v>Demand Transport Sector - Cars</v>
       </c>
       <c r="S5" s="143" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T5" s="138"/>
       <c r="U5" s="138"/>
@@ -7386,7 +7366,7 @@
         <v>Demand Transport Sector - Pub</v>
       </c>
       <c r="S6" s="143" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T6" s="138"/>
       <c r="U6" s="138"/>
@@ -7464,7 +7444,7 @@
         <v>79</v>
       </c>
       <c r="K10" s="83" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L10" s="35"/>
       <c r="M10" s="39" t="s">
@@ -7524,10 +7504,10 @@
         <v>96</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L11" s="42"/>
       <c r="M11" s="127" t="s">
@@ -7572,10 +7552,10 @@
         <v>000_Units</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G12" s="87" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H12" s="85" t="s">
         <v>145</v>
@@ -7588,11 +7568,11 @@
         <v>92</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L12" s="42"/>
       <c r="M12" s="128" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O12" s="133" t="s">
         <v>81</v>
@@ -7658,7 +7638,7 @@
         <v>Demand Technologies Transport Sector - Existing Cars - Natural Gas</v>
       </c>
       <c r="S13" s="138" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T13" s="138" t="str">
         <f t="shared" ref="T13:T24" si="3">$G$2</f>
@@ -7720,7 +7700,7 @@
         <v>Demand Technologies Transport Sector - Existing Cars - Diesel oil</v>
       </c>
       <c r="S14" s="143" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T14" s="138" t="str">
         <f t="shared" si="3"/>
@@ -7782,7 +7762,7 @@
         <v>Demand Technologies Transport Sector - Existing Cars - LPG</v>
       </c>
       <c r="S15" s="143" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T15" s="138" t="str">
         <f t="shared" si="3"/>
@@ -7844,7 +7824,7 @@
         <v>Demand Technologies Transport Sector - Existing Cars - Motor spirit</v>
       </c>
       <c r="S16" s="143" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T16" s="138" t="str">
         <f t="shared" si="3"/>
@@ -7906,7 +7886,7 @@
         <v>Demand Technologies Transport Sector - Existing Cars - Biofuels</v>
       </c>
       <c r="S17" s="143" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T17" s="138" t="str">
         <f t="shared" si="3"/>
@@ -7969,7 +7949,7 @@
         <v>Demand Technologies Transport Sector - Existing Cars - Electricity</v>
       </c>
       <c r="S18" s="142" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T18" s="142" t="str">
         <f t="shared" si="3"/>
@@ -8031,7 +8011,7 @@
         <v>Demand Technologies Transport Sector - Existing Pub - Natural Gas</v>
       </c>
       <c r="S19" s="143" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T19" s="138" t="str">
         <f t="shared" si="3"/>
@@ -8093,7 +8073,7 @@
         <v>Demand Technologies Transport Sector - Existing Pub - Diesel oil</v>
       </c>
       <c r="S20" s="143" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T20" s="138" t="str">
         <f t="shared" si="3"/>
@@ -8155,7 +8135,7 @@
         <v>Demand Technologies Transport Sector - Existing Pub - LPG</v>
       </c>
       <c r="S21" s="143" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T21" s="138" t="str">
         <f t="shared" si="3"/>
@@ -8217,7 +8197,7 @@
         <v>Demand Technologies Transport Sector - Existing Pub - Motor spirit</v>
       </c>
       <c r="S22" s="143" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T22" s="138" t="str">
         <f t="shared" si="3"/>
@@ -8279,7 +8259,7 @@
         <v>Demand Technologies Transport Sector - Existing Pub - Biofuels</v>
       </c>
       <c r="S23" s="143" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T23" s="138" t="str">
         <f t="shared" si="3"/>
@@ -8341,7 +8321,7 @@
         <v>Demand Technologies Transport Sector - Existing Pub - Electricity</v>
       </c>
       <c r="S24" s="142" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T24" s="142" t="str">
         <f t="shared" si="3"/>
@@ -8367,7 +8347,7 @@
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B27" s="54"/>
       <c r="C27" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="11"/>
@@ -8376,7 +8356,7 @@
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B28" s="74"/>
       <c r="C28" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="11"/>
@@ -8430,7 +8410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:S24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8488,7 +8468,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="1"/>
       <c r="G5" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -8500,7 +8480,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E6" s="88">
         <v>2005</v>
@@ -8509,13 +8489,13 @@
         <v>0</v>
       </c>
       <c r="H6" s="146" t="s">
+        <v>182</v>
+      </c>
+      <c r="I6" s="146" t="s">
         <v>183</v>
       </c>
-      <c r="I6" s="146" t="s">
+      <c r="J6" s="146" t="s">
         <v>184</v>
-      </c>
-      <c r="J6" s="146" t="s">
-        <v>185</v>
       </c>
       <c r="K6" s="146" t="s">
         <v>119</v>
@@ -8524,16 +8504,16 @@
         <v>120</v>
       </c>
       <c r="M6" s="146" t="s">
+        <v>185</v>
+      </c>
+      <c r="N6" s="146" t="s">
         <v>186</v>
       </c>
-      <c r="N6" s="146" t="s">
+      <c r="O6" s="146" t="s">
         <v>187</v>
       </c>
-      <c r="O6" s="146" t="s">
+      <c r="P6" s="146" t="s">
         <v>188</v>
-      </c>
-      <c r="P6" s="146" t="s">
-        <v>189</v>
       </c>
       <c r="Q6" s="146" t="s">
         <v>121</v>
@@ -8542,7 +8522,7 @@
         <v>122</v>
       </c>
       <c r="S6" s="146" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="2:19" ht="22.5" x14ac:dyDescent="0.2">
@@ -8553,13 +8533,13 @@
         <v>82</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E7" s="84" t="s">
         <v>36</v>
       </c>
       <c r="G7" s="145" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H7" s="145"/>
       <c r="I7" s="145"/>
@@ -8607,14 +8587,14 @@
         <v>DTCAR</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E9" s="72">
         <f>SUM(DemTechs_TRA!M13:M18)</f>
         <v>3067.06485564375</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H9" s="148">
         <v>9.417808219178081E-2</v>
@@ -8662,14 +8642,14 @@
         <v>DTPUB</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E10" s="72">
         <f>SUM(DemTechs_TRA!M19:M24)</f>
         <v>1727.9701023749997</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H10" s="148">
         <v>9.417808219178081E-2</v>
@@ -8755,13 +8735,13 @@
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="54"/>
       <c r="C23" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="74"/>
       <c r="C24" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -8771,11 +8751,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A3:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8783,7 +8763,7 @@
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="45" t="s">
         <v>147</v>
       </c>
@@ -8794,7 +8774,7 @@
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="2:9" s="6" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="6" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="46"/>
       <c r="C4" s="46"/>
       <c r="D4" s="46"/>
@@ -8802,15 +8782,18 @@
       <c r="F4" s="46"/>
       <c r="G4" s="46"/>
     </row>
-    <row r="5" spans="2:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="B5" s="43" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="C5" s="44"/>
       <c r="G5" s="38"/>
       <c r="H5" s="38"/>
     </row>
-    <row r="6" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>194</v>
+      </c>
       <c r="B6" s="48" t="s">
         <v>0</v>
       </c>
@@ -8834,27 +8817,30 @@
       <c r="H6" s="47"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
         <v>91</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G7" s="115"/>
       <c r="H7" s="115"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>195</v>
+      </c>
       <c r="B8" s="47" t="str">
         <f>DemTechs_TRA!Q7</f>
         <v>TRACO2</v>
@@ -8875,24 +8861,24 @@
       <c r="H8" s="116"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G10" s="38"/>
       <c r="H10" s="38"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="54"/>
       <c r="C23" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="74"/>
       <c r="C24" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/VT_REG2_TRA_V12.xlsx
+++ b/VT_REG2_TRA_V12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\Demo_Adv_Veda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB220B27-8F3F-4C90-814E-ACAC762D02E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F408D8-F70E-41B7-A1AB-347DCE67963F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="901" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="12735" tabRatio="901" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EB2" sheetId="133" r:id="rId1"/>
@@ -22,7 +22,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
@@ -2678,7 +2677,7 @@
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2960,6 +2959,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="19" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
@@ -3793,7 +3798,7 @@
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
@@ -4129,450 +4134,6 @@
       <sheetData sheetId="56"/>
       <sheetData sheetId="57"/>
       <sheetData sheetId="58"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="EnergyBalance"/>
-      <sheetName val="EB1"/>
-      <sheetName val="EB2"/>
-      <sheetName val="RES&amp;OBJ"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="16">
-          <cell r="D16">
-            <v>124.79425000000001</v>
-          </cell>
-          <cell r="E16">
-            <v>3095.8757999999998</v>
-          </cell>
-          <cell r="G16">
-            <v>862.053</v>
-          </cell>
-          <cell r="H16">
-            <v>72.9495</v>
-          </cell>
-          <cell r="I16">
-            <v>190.17599999999999</v>
-          </cell>
-          <cell r="J16">
-            <v>3.1680000000000001</v>
-          </cell>
-          <cell r="K16">
-            <v>0</v>
-          </cell>
-          <cell r="L16">
-            <v>15.38</v>
-          </cell>
-          <cell r="M16">
-            <v>0.92</v>
-          </cell>
-          <cell r="N16">
-            <v>0</v>
-          </cell>
-          <cell r="O16">
-            <v>298.48174999999992</v>
-          </cell>
-          <cell r="P16">
-            <v>0</v>
-          </cell>
-          <cell r="Q16">
-            <v>0</v>
-          </cell>
-          <cell r="R16">
-            <v>50</v>
-          </cell>
-          <cell r="S16">
-            <v>0</v>
-          </cell>
-          <cell r="T16">
-            <v>432.74250000000001</v>
-          </cell>
-          <cell r="U16">
-            <v>1435.8710000000001</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="D17">
-            <v>19.923749999999998</v>
-          </cell>
-          <cell r="E17">
-            <v>1051.038</v>
-          </cell>
-          <cell r="G17">
-            <v>368.84399999999999</v>
-          </cell>
-          <cell r="H17">
-            <v>1.677</v>
-          </cell>
-          <cell r="I17">
-            <v>31.602</v>
-          </cell>
-          <cell r="J17">
-            <v>5.72</v>
-          </cell>
-          <cell r="K17">
-            <v>0</v>
-          </cell>
-          <cell r="L17">
-            <v>19.32</v>
-          </cell>
-          <cell r="M17">
-            <v>0.24199999999999999</v>
-          </cell>
-          <cell r="N17">
-            <v>0</v>
-          </cell>
-          <cell r="O17">
-            <v>13</v>
-          </cell>
-          <cell r="P17">
-            <v>0</v>
-          </cell>
-          <cell r="Q17">
-            <v>0</v>
-          </cell>
-          <cell r="R17">
-            <v>7.5</v>
-          </cell>
-          <cell r="S17">
-            <v>0.60850000000000004</v>
-          </cell>
-          <cell r="T17">
-            <v>127.32299999999999</v>
-          </cell>
-          <cell r="U17">
-            <v>1263.6955</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="D18">
-            <v>663.94509999999991</v>
-          </cell>
-          <cell r="E18">
-            <v>2662.2965999999997</v>
-          </cell>
-          <cell r="G18">
-            <v>298.68</v>
-          </cell>
-          <cell r="H18">
-            <v>36.356499999999997</v>
-          </cell>
-          <cell r="I18">
-            <v>142.97149999999999</v>
-          </cell>
-          <cell r="J18">
-            <v>7.766</v>
-          </cell>
-          <cell r="K18">
-            <v>44.066000000000003</v>
-          </cell>
-          <cell r="L18">
-            <v>286.0505</v>
-          </cell>
-          <cell r="M18">
-            <v>191.57300000000001</v>
-          </cell>
-          <cell r="N18">
-            <v>0</v>
-          </cell>
-          <cell r="O18">
-            <v>180.41775000000007</v>
-          </cell>
-          <cell r="P18">
-            <v>0</v>
-          </cell>
-          <cell r="Q18">
-            <v>0</v>
-          </cell>
-          <cell r="R18">
-            <v>0</v>
-          </cell>
-          <cell r="S18">
-            <v>58.595999999999997</v>
-          </cell>
-          <cell r="T18">
-            <v>316.79149999999998</v>
-          </cell>
-          <cell r="U18">
-            <v>2044.222</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="D19">
-            <v>15.434999999999999</v>
-          </cell>
-          <cell r="E19">
-            <v>120.72359999999999</v>
-          </cell>
-          <cell r="G19">
-            <v>366.58800000000002</v>
-          </cell>
-          <cell r="H19">
-            <v>0.47299999999999998</v>
-          </cell>
-          <cell r="I19">
-            <v>16.169</v>
-          </cell>
-          <cell r="J19">
-            <v>1.716</v>
-          </cell>
-          <cell r="K19">
-            <v>0</v>
-          </cell>
-          <cell r="L19">
-            <v>13.74</v>
-          </cell>
-          <cell r="M19">
-            <v>0</v>
-          </cell>
-          <cell r="N19">
-            <v>0</v>
-          </cell>
-          <cell r="O19">
-            <v>15.771500000000003</v>
-          </cell>
-          <cell r="P19">
-            <v>0</v>
-          </cell>
-          <cell r="Q19">
-            <v>0</v>
-          </cell>
-          <cell r="R19">
-            <v>0</v>
-          </cell>
-          <cell r="S19">
-            <v>5.0000000000000001E-4</v>
-          </cell>
-          <cell r="T19">
-            <v>7.7869999999999999</v>
-          </cell>
-          <cell r="U19">
-            <v>9.6930000000000014</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="D20">
-            <v>0.1946</v>
-          </cell>
-          <cell r="E20">
-            <v>12.7494</v>
-          </cell>
-          <cell r="G20">
-            <v>3856.2855</v>
-          </cell>
-          <cell r="H20">
-            <v>1047.652</v>
-          </cell>
-          <cell r="I20">
-            <v>94.230999999999995</v>
-          </cell>
-          <cell r="J20">
-            <v>2394.2159999999999</v>
-          </cell>
-          <cell r="K20">
-            <v>0</v>
-          </cell>
-          <cell r="L20">
-            <v>33.24</v>
-          </cell>
-          <cell r="M20">
-            <v>0</v>
-          </cell>
-          <cell r="N20">
-            <v>0</v>
-          </cell>
-          <cell r="O20">
-            <v>40.25</v>
-          </cell>
-          <cell r="P20">
-            <v>0</v>
-          </cell>
-          <cell r="Q20">
-            <v>0</v>
-          </cell>
-          <cell r="R20">
-            <v>0</v>
-          </cell>
-          <cell r="S20">
-            <v>0</v>
-          </cell>
-          <cell r="T20">
-            <v>0</v>
-          </cell>
-          <cell r="U20">
-            <v>132.98599999999999</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="D21">
-            <v>416.23084999999924</v>
-          </cell>
-          <cell r="E21">
-            <v>0</v>
-          </cell>
-          <cell r="G21">
-            <v>0</v>
-          </cell>
-          <cell r="H21">
-            <v>0</v>
-          </cell>
-          <cell r="I21">
-            <v>0</v>
-          </cell>
-          <cell r="J21">
-            <v>0</v>
-          </cell>
-          <cell r="K21">
-            <v>0</v>
-          </cell>
-          <cell r="L21">
-            <v>0</v>
-          </cell>
-          <cell r="M21">
-            <v>0</v>
-          </cell>
-          <cell r="N21">
-            <v>0</v>
-          </cell>
-          <cell r="O21">
-            <v>0</v>
-          </cell>
-          <cell r="P21">
-            <v>0</v>
-          </cell>
-          <cell r="Q21">
-            <v>0</v>
-          </cell>
-          <cell r="R21">
-            <v>0</v>
-          </cell>
-          <cell r="S21">
-            <v>0</v>
-          </cell>
-          <cell r="T21">
-            <v>313.51900000000001</v>
-          </cell>
-          <cell r="U21">
-            <v>325</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="D22">
-            <v>18.358550000000001</v>
-          </cell>
-          <cell r="E22">
-            <v>380.29379999999998</v>
-          </cell>
-          <cell r="G22">
-            <v>76.465000000000003</v>
-          </cell>
-          <cell r="H22">
-            <v>4.7945000000000002</v>
-          </cell>
-          <cell r="I22">
-            <v>199.87350000000001</v>
-          </cell>
-          <cell r="J22">
-            <v>3.1459999999999999</v>
-          </cell>
-          <cell r="K22">
-            <v>899.20600000000002</v>
-          </cell>
-          <cell r="L22">
-            <v>52.04</v>
-          </cell>
-          <cell r="M22">
-            <v>800.72900000000004</v>
-          </cell>
-          <cell r="N22">
-            <v>0</v>
-          </cell>
-          <cell r="O22">
-            <v>0</v>
-          </cell>
-          <cell r="P22">
-            <v>0</v>
-          </cell>
-          <cell r="Q22">
-            <v>0</v>
-          </cell>
-          <cell r="R22">
-            <v>0</v>
-          </cell>
-          <cell r="S22">
-            <v>0</v>
-          </cell>
-          <cell r="T22">
-            <v>0</v>
-          </cell>
-          <cell r="U22">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="D23">
-            <v>0</v>
-          </cell>
-          <cell r="E23">
-            <v>0</v>
-          </cell>
-          <cell r="G23">
-            <v>146.90600000000001</v>
-          </cell>
-          <cell r="H23">
-            <v>0</v>
-          </cell>
-          <cell r="I23">
-            <v>0</v>
-          </cell>
-          <cell r="J23">
-            <v>0</v>
-          </cell>
-          <cell r="K23">
-            <v>0</v>
-          </cell>
-          <cell r="L23">
-            <v>902.14</v>
-          </cell>
-          <cell r="M23">
-            <v>6.5</v>
-          </cell>
-          <cell r="N23">
-            <v>0</v>
-          </cell>
-          <cell r="O23">
-            <v>0</v>
-          </cell>
-          <cell r="P23">
-            <v>0</v>
-          </cell>
-          <cell r="Q23">
-            <v>0</v>
-          </cell>
-          <cell r="R23">
-            <v>0</v>
-          </cell>
-          <cell r="S23">
-            <v>0</v>
-          </cell>
-          <cell r="T23">
-            <v>0</v>
-          </cell>
-          <cell r="U23">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5129,75 +4690,57 @@
         <v>59</v>
       </c>
       <c r="D5" s="93">
-        <f>[2]EB2!D16</f>
         <v>124.79425000000001</v>
       </c>
       <c r="E5" s="93">
-        <f>[2]EB2!E16</f>
         <v>3095.8757999999998</v>
       </c>
       <c r="F5" s="93">
-        <f>[2]EB2!F16</f>
         <v>0</v>
       </c>
       <c r="G5" s="93">
-        <f>[2]EB2!G16</f>
         <v>862.053</v>
       </c>
       <c r="H5" s="93">
-        <f>[2]EB2!H16</f>
         <v>72.9495</v>
       </c>
       <c r="I5" s="93">
-        <f>[2]EB2!I16</f>
         <v>190.17599999999999</v>
       </c>
       <c r="J5" s="93">
-        <f>[2]EB2!J16</f>
         <v>3.1680000000000001</v>
       </c>
       <c r="K5" s="93">
-        <f>[2]EB2!K16</f>
         <v>0</v>
       </c>
       <c r="L5" s="93">
-        <f>[2]EB2!L16</f>
         <v>15.38</v>
       </c>
       <c r="M5" s="93">
-        <f>[2]EB2!M16</f>
         <v>0.92</v>
       </c>
       <c r="N5" s="94">
-        <f>[2]EB2!N16</f>
         <v>0</v>
       </c>
       <c r="O5" s="93">
-        <f>[2]EB2!O16</f>
         <v>298.48174999999992</v>
       </c>
       <c r="P5" s="93">
-        <f>[2]EB2!P16</f>
         <v>0</v>
       </c>
       <c r="Q5" s="93">
-        <f>[2]EB2!Q16</f>
         <v>0</v>
       </c>
       <c r="R5" s="93">
-        <f>[2]EB2!R16</f>
         <v>50</v>
       </c>
       <c r="S5" s="93">
-        <f>[2]EB2!S16</f>
         <v>0</v>
       </c>
       <c r="T5" s="93">
-        <f>[2]EB2!T16</f>
         <v>432.74250000000001</v>
       </c>
       <c r="U5" s="93">
-        <f>[2]EB2!U16</f>
         <v>1435.8710000000001</v>
       </c>
       <c r="V5" s="95">
@@ -5214,75 +4757,57 @@
         <v>61</v>
       </c>
       <c r="D6" s="93">
-        <f>[2]EB2!D17</f>
         <v>19.923749999999998</v>
       </c>
       <c r="E6" s="93">
-        <f>[2]EB2!E17</f>
         <v>1051.038</v>
       </c>
       <c r="F6" s="93">
-        <f>[2]EB2!F17</f>
         <v>0</v>
       </c>
       <c r="G6" s="93">
-        <f>[2]EB2!G17</f>
         <v>368.84399999999999</v>
       </c>
       <c r="H6" s="93">
-        <f>[2]EB2!H17</f>
         <v>1.677</v>
       </c>
       <c r="I6" s="93">
-        <f>[2]EB2!I17</f>
         <v>31.602</v>
       </c>
       <c r="J6" s="93">
-        <f>[2]EB2!J17</f>
         <v>5.72</v>
       </c>
       <c r="K6" s="93">
-        <f>[2]EB2!K17</f>
         <v>0</v>
       </c>
       <c r="L6" s="93">
-        <f>[2]EB2!L17</f>
         <v>19.32</v>
       </c>
       <c r="M6" s="93">
-        <f>[2]EB2!M17</f>
         <v>0.24199999999999999</v>
       </c>
       <c r="N6" s="94">
-        <f>[2]EB2!N17</f>
         <v>0</v>
       </c>
       <c r="O6" s="93">
-        <f>[2]EB2!O17</f>
         <v>13</v>
       </c>
       <c r="P6" s="93">
-        <f>[2]EB2!P17</f>
         <v>0</v>
       </c>
       <c r="Q6" s="93">
-        <f>[2]EB2!Q17</f>
         <v>0</v>
       </c>
       <c r="R6" s="93">
-        <f>[2]EB2!R17</f>
         <v>7.5</v>
       </c>
       <c r="S6" s="93">
-        <f>[2]EB2!S17</f>
         <v>0.60850000000000004</v>
       </c>
       <c r="T6" s="93">
-        <f>[2]EB2!T17</f>
         <v>127.32299999999999</v>
       </c>
       <c r="U6" s="93">
-        <f>[2]EB2!U17</f>
         <v>1263.6955</v>
       </c>
       <c r="V6" s="95">
@@ -5299,75 +4824,57 @@
         <v>63</v>
       </c>
       <c r="D7" s="93">
-        <f>[2]EB2!D18</f>
         <v>663.94509999999991</v>
       </c>
       <c r="E7" s="93">
-        <f>[2]EB2!E18</f>
         <v>2662.2965999999997</v>
       </c>
       <c r="F7" s="93">
-        <f>[2]EB2!F18</f>
         <v>0</v>
       </c>
       <c r="G7" s="93">
-        <f>[2]EB2!G18</f>
         <v>298.68</v>
       </c>
       <c r="H7" s="93">
-        <f>[2]EB2!H18</f>
         <v>36.356499999999997</v>
       </c>
       <c r="I7" s="93">
-        <f>[2]EB2!I18</f>
         <v>142.97149999999999</v>
       </c>
       <c r="J7" s="93">
-        <f>[2]EB2!J18</f>
         <v>7.766</v>
       </c>
       <c r="K7" s="93">
-        <f>[2]EB2!K18</f>
         <v>44.066000000000003</v>
       </c>
       <c r="L7" s="93">
-        <f>[2]EB2!L18</f>
         <v>286.0505</v>
       </c>
       <c r="M7" s="93">
-        <f>[2]EB2!M18</f>
         <v>191.57300000000001</v>
       </c>
       <c r="N7" s="94">
-        <f>[2]EB2!N18</f>
         <v>0</v>
       </c>
       <c r="O7" s="93">
-        <f>[2]EB2!O18</f>
         <v>180.41775000000007</v>
       </c>
       <c r="P7" s="93">
-        <f>[2]EB2!P18</f>
         <v>0</v>
       </c>
       <c r="Q7" s="93">
-        <f>[2]EB2!Q18</f>
         <v>0</v>
       </c>
       <c r="R7" s="93">
-        <f>[2]EB2!R18</f>
         <v>0</v>
       </c>
       <c r="S7" s="93">
-        <f>[2]EB2!S18</f>
         <v>58.595999999999997</v>
       </c>
       <c r="T7" s="93">
-        <f>[2]EB2!T18</f>
         <v>316.79149999999998</v>
       </c>
       <c r="U7" s="93">
-        <f>[2]EB2!U18</f>
         <v>2044.222</v>
       </c>
       <c r="V7" s="95">
@@ -5384,75 +4891,57 @@
         <v>65</v>
       </c>
       <c r="D8" s="93">
-        <f>[2]EB2!D19</f>
         <v>15.434999999999999</v>
       </c>
       <c r="E8" s="93">
-        <f>[2]EB2!E19</f>
         <v>120.72359999999999</v>
       </c>
       <c r="F8" s="93">
-        <f>[2]EB2!F19</f>
         <v>0</v>
       </c>
       <c r="G8" s="93">
-        <f>[2]EB2!G19</f>
         <v>366.58800000000002</v>
       </c>
       <c r="H8" s="93">
-        <f>[2]EB2!H19</f>
         <v>0.47299999999999998</v>
       </c>
       <c r="I8" s="93">
-        <f>[2]EB2!I19</f>
         <v>16.169</v>
       </c>
       <c r="J8" s="93">
-        <f>[2]EB2!J19</f>
         <v>1.716</v>
       </c>
       <c r="K8" s="93">
-        <f>[2]EB2!K19</f>
         <v>0</v>
       </c>
       <c r="L8" s="93">
-        <f>[2]EB2!L19</f>
         <v>13.74</v>
       </c>
       <c r="M8" s="93">
-        <f>[2]EB2!M19</f>
         <v>0</v>
       </c>
       <c r="N8" s="94">
-        <f>[2]EB2!N19</f>
         <v>0</v>
       </c>
       <c r="O8" s="93">
-        <f>[2]EB2!O19</f>
         <v>15.771500000000003</v>
       </c>
       <c r="P8" s="93">
-        <f>[2]EB2!P19</f>
         <v>0</v>
       </c>
       <c r="Q8" s="93">
-        <f>[2]EB2!Q19</f>
         <v>0</v>
       </c>
       <c r="R8" s="93">
-        <f>[2]EB2!R19</f>
         <v>0</v>
       </c>
       <c r="S8" s="93">
-        <f>[2]EB2!S19</f>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="T8" s="93">
-        <f>[2]EB2!T19</f>
         <v>7.7869999999999999</v>
       </c>
       <c r="U8" s="93">
-        <f>[2]EB2!U19</f>
         <v>9.6930000000000014</v>
       </c>
       <c r="V8" s="95">
@@ -5469,75 +4958,57 @@
         <v>67</v>
       </c>
       <c r="D9" s="93">
-        <f>[2]EB2!D20</f>
         <v>0.1946</v>
       </c>
       <c r="E9" s="57">
-        <f>[2]EB2!E20</f>
         <v>12.7494</v>
       </c>
       <c r="F9" s="93">
-        <f>[2]EB2!F20</f>
         <v>0</v>
       </c>
       <c r="G9" s="57">
-        <f>[2]EB2!G20</f>
         <v>3856.2855</v>
       </c>
       <c r="H9" s="93">
-        <f>[2]EB2!H20</f>
         <v>1047.652</v>
       </c>
       <c r="I9" s="57">
-        <f>[2]EB2!I20</f>
         <v>94.230999999999995</v>
       </c>
       <c r="J9" s="57">
-        <f>[2]EB2!J20</f>
         <v>2394.2159999999999</v>
       </c>
       <c r="K9" s="93">
-        <f>[2]EB2!K20</f>
         <v>0</v>
       </c>
       <c r="L9" s="93">
-        <f>[2]EB2!L20</f>
         <v>33.24</v>
       </c>
       <c r="M9" s="93">
-        <f>[2]EB2!M20</f>
         <v>0</v>
       </c>
       <c r="N9" s="93">
-        <f>[2]EB2!N20</f>
         <v>0</v>
       </c>
       <c r="O9" s="57">
-        <f>[2]EB2!O20</f>
         <v>40.25</v>
       </c>
       <c r="P9" s="93">
-        <f>[2]EB2!P20</f>
         <v>0</v>
       </c>
       <c r="Q9" s="93">
-        <f>[2]EB2!Q20</f>
         <v>0</v>
       </c>
       <c r="R9" s="93">
-        <f>[2]EB2!R20</f>
         <v>0</v>
       </c>
       <c r="S9" s="93">
-        <f>[2]EB2!S20</f>
         <v>0</v>
       </c>
       <c r="T9" s="93">
-        <f>[2]EB2!T20</f>
         <v>0</v>
       </c>
       <c r="U9" s="57">
-        <f>[2]EB2!U20</f>
         <v>132.98599999999999</v>
       </c>
       <c r="V9" s="95">
@@ -5554,75 +5025,57 @@
         <v>69</v>
       </c>
       <c r="D10" s="56">
-        <f>[2]EB2!D21</f>
         <v>416.23084999999924</v>
       </c>
       <c r="E10" s="56">
-        <f>[2]EB2!E21</f>
         <v>0</v>
       </c>
       <c r="F10" s="56">
-        <f>[2]EB2!F21</f>
         <v>0</v>
       </c>
       <c r="G10" s="56">
-        <f>[2]EB2!G21</f>
         <v>0</v>
       </c>
       <c r="H10" s="56">
-        <f>[2]EB2!H21</f>
         <v>0</v>
       </c>
       <c r="I10" s="56">
-        <f>[2]EB2!I21</f>
         <v>0</v>
       </c>
       <c r="J10" s="56">
-        <f>[2]EB2!J21</f>
         <v>0</v>
       </c>
       <c r="K10" s="56">
-        <f>[2]EB2!K21</f>
         <v>0</v>
       </c>
       <c r="L10" s="56">
-        <f>[2]EB2!L21</f>
         <v>0</v>
       </c>
       <c r="M10" s="56">
-        <f>[2]EB2!M21</f>
         <v>0</v>
       </c>
       <c r="N10" s="56">
-        <f>[2]EB2!N21</f>
         <v>0</v>
       </c>
       <c r="O10" s="56">
-        <f>[2]EB2!O21</f>
         <v>0</v>
       </c>
       <c r="P10" s="56">
-        <f>[2]EB2!P21</f>
         <v>0</v>
       </c>
       <c r="Q10" s="56">
-        <f>[2]EB2!Q21</f>
         <v>0</v>
       </c>
       <c r="R10" s="56">
-        <f>[2]EB2!R21</f>
         <v>0</v>
       </c>
       <c r="S10" s="56">
-        <f>[2]EB2!S21</f>
         <v>0</v>
       </c>
       <c r="T10" s="56">
-        <f>[2]EB2!T21</f>
         <v>313.51900000000001</v>
       </c>
       <c r="U10" s="56">
-        <f>[2]EB2!U21</f>
         <v>325</v>
       </c>
       <c r="V10" s="96">
@@ -5639,75 +5092,57 @@
         <v>70</v>
       </c>
       <c r="D11" s="93">
-        <f>[2]EB2!D22</f>
         <v>18.358550000000001</v>
       </c>
       <c r="E11" s="93">
-        <f>[2]EB2!E22</f>
         <v>380.29379999999998</v>
       </c>
       <c r="F11" s="93">
-        <f>[2]EB2!F22</f>
         <v>0</v>
       </c>
       <c r="G11" s="93">
-        <f>[2]EB2!G22</f>
         <v>76.465000000000003</v>
       </c>
       <c r="H11" s="93">
-        <f>[2]EB2!H22</f>
         <v>4.7945000000000002</v>
       </c>
       <c r="I11" s="93">
-        <f>[2]EB2!I22</f>
         <v>199.87350000000001</v>
       </c>
       <c r="J11" s="93">
-        <f>[2]EB2!J22</f>
         <v>3.1459999999999999</v>
       </c>
       <c r="K11" s="93">
-        <f>[2]EB2!K22</f>
         <v>899.20600000000002</v>
       </c>
       <c r="L11" s="93">
-        <f>[2]EB2!L22</f>
         <v>52.04</v>
       </c>
       <c r="M11" s="93">
-        <f>[2]EB2!M22</f>
         <v>800.72900000000004</v>
       </c>
       <c r="N11" s="94">
-        <f>[2]EB2!N22</f>
         <v>0</v>
       </c>
       <c r="O11" s="93">
-        <f>[2]EB2!O22</f>
         <v>0</v>
       </c>
       <c r="P11" s="93">
-        <f>[2]EB2!P22</f>
         <v>0</v>
       </c>
       <c r="Q11" s="93">
-        <f>[2]EB2!Q22</f>
         <v>0</v>
       </c>
       <c r="R11" s="93">
-        <f>[2]EB2!R22</f>
         <v>0</v>
       </c>
       <c r="S11" s="93">
-        <f>[2]EB2!S22</f>
         <v>0</v>
       </c>
       <c r="T11" s="93">
-        <f>[2]EB2!T22</f>
         <v>0</v>
       </c>
       <c r="U11" s="93">
-        <f>[2]EB2!U22</f>
         <v>0</v>
       </c>
       <c r="V11" s="95">
@@ -5724,75 +5159,57 @@
         <v>71</v>
       </c>
       <c r="D12" s="93">
-        <f>[2]EB2!D23</f>
         <v>0</v>
       </c>
       <c r="E12" s="93">
-        <f>[2]EB2!E23</f>
         <v>0</v>
       </c>
       <c r="F12" s="93">
-        <f>[2]EB2!F23</f>
         <v>0</v>
       </c>
       <c r="G12" s="93">
-        <f>[2]EB2!G23</f>
         <v>146.90600000000001</v>
       </c>
       <c r="H12" s="93">
-        <f>[2]EB2!H23</f>
         <v>0</v>
       </c>
       <c r="I12" s="93">
-        <f>[2]EB2!I23</f>
         <v>0</v>
       </c>
       <c r="J12" s="93">
-        <f>[2]EB2!J23</f>
         <v>0</v>
       </c>
       <c r="K12" s="93">
-        <f>[2]EB2!K23</f>
         <v>0</v>
       </c>
       <c r="L12" s="93">
-        <f>[2]EB2!L23</f>
         <v>902.14</v>
       </c>
       <c r="M12" s="93">
-        <f>[2]EB2!M23</f>
         <v>6.5</v>
       </c>
       <c r="N12" s="94">
-        <f>[2]EB2!N23</f>
         <v>0</v>
       </c>
       <c r="O12" s="56">
-        <f>[2]EB2!O23</f>
         <v>0</v>
       </c>
       <c r="P12" s="56">
-        <f>[2]EB2!P23</f>
         <v>0</v>
       </c>
       <c r="Q12" s="56">
-        <f>[2]EB2!Q23</f>
         <v>0</v>
       </c>
       <c r="R12" s="56">
-        <f>[2]EB2!R23</f>
         <v>0</v>
       </c>
       <c r="S12" s="93">
-        <f>[2]EB2!S23</f>
         <v>0</v>
       </c>
       <c r="T12" s="93">
-        <f>[2]EB2!T23</f>
         <v>0</v>
       </c>
       <c r="U12" s="93">
-        <f>[2]EB2!U23</f>
         <v>0</v>
       </c>
       <c r="V12" s="95">
@@ -8411,10 +7828,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B1:S24"/>
+  <dimension ref="B1:T24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8424,12 +7841,12 @@
     <col min="3" max="3" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="20" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="21" width="4.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="12" t="s">
         <v>73</v>
       </c>
@@ -8442,11 +7859,12 @@
       <c r="E1" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="F1" s="12"/>
+      <c r="H1" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
         <v>83</v>
       </c>
@@ -8456,23 +7874,25 @@
         <f>DemTechs_TRA!S5</f>
         <v>BPkm</v>
       </c>
-      <c r="G2" s="14" t="str">
+      <c r="F2" s="14"/>
+      <c r="H2" s="14" t="str">
         <f>'EB2'!Y2</f>
         <v>M€2005</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="1"/>
-      <c r="G5" s="3" t="s">
+      <c r="F5" s="1"/>
+      <c r="H5" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>80</v>
       </c>
@@ -8483,49 +7903,52 @@
         <v>149</v>
       </c>
       <c r="E6" s="88">
-        <v>2005</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="146" t="s">
+        <v>2020</v>
+      </c>
+      <c r="F6" s="149">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="146" t="s">
         <v>182</v>
       </c>
-      <c r="I6" s="146" t="s">
+      <c r="J6" s="146" t="s">
         <v>183</v>
       </c>
-      <c r="J6" s="146" t="s">
+      <c r="K6" s="146" t="s">
         <v>184</v>
       </c>
-      <c r="K6" s="146" t="s">
+      <c r="L6" s="146" t="s">
         <v>119</v>
       </c>
-      <c r="L6" s="146" t="s">
+      <c r="M6" s="146" t="s">
         <v>120</v>
       </c>
-      <c r="M6" s="146" t="s">
+      <c r="N6" s="146" t="s">
         <v>185</v>
       </c>
-      <c r="N6" s="146" t="s">
+      <c r="O6" s="146" t="s">
         <v>186</v>
       </c>
-      <c r="O6" s="146" t="s">
+      <c r="P6" s="146" t="s">
         <v>187</v>
       </c>
-      <c r="P6" s="146" t="s">
+      <c r="Q6" s="146" t="s">
         <v>188</v>
       </c>
-      <c r="Q6" s="146" t="s">
+      <c r="R6" s="146" t="s">
         <v>121</v>
       </c>
-      <c r="R6" s="146" t="s">
+      <c r="S6" s="146" t="s">
         <v>122</v>
       </c>
-      <c r="S6" s="146" t="s">
+      <c r="T6" s="146" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="2:19" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B7" s="20" t="s">
         <v>81</v>
       </c>
@@ -8538,10 +7961,10 @@
       <c r="E7" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="145" t="s">
+      <c r="F7" s="150"/>
+      <c r="H7" s="145" t="s">
         <v>192</v>
       </c>
-      <c r="H7" s="145"/>
       <c r="I7" s="145"/>
       <c r="J7" s="145"/>
       <c r="K7" s="145"/>
@@ -8553,8 +7976,9 @@
       <c r="Q7" s="145"/>
       <c r="R7" s="145"/>
       <c r="S7" s="145"/>
-    </row>
-    <row r="8" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="T7" s="145"/>
+    </row>
+    <row r="8" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
         <v>91</v>
       </c>
@@ -8564,7 +7988,7 @@
         <f>E2</f>
         <v>BPkm</v>
       </c>
-      <c r="G8" s="144"/>
+      <c r="F8" s="150"/>
       <c r="H8" s="144"/>
       <c r="I8" s="144"/>
       <c r="J8" s="144"/>
@@ -8577,8 +8001,9 @@
       <c r="Q8" s="144"/>
       <c r="R8" s="144"/>
       <c r="S8" s="144"/>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="144"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
         <v>35</v>
       </c>
@@ -8593,47 +8018,50 @@
         <f>SUM(DemTechs_TRA!M13:M18)</f>
         <v>3067.06485564375</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="F9" s="72">
+        <v>5</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="H9" s="148">
+      <c r="I9" s="148">
         <v>9.417808219178081E-2</v>
       </c>
-      <c r="I9" s="148">
+      <c r="J9" s="148">
         <v>0.10273972602739725</v>
       </c>
-      <c r="J9" s="148">
+      <c r="K9" s="148">
         <v>8.5616438356164379E-3</v>
       </c>
-      <c r="K9" s="148">
+      <c r="L9" s="148">
         <v>0.12682648401826482</v>
       </c>
-      <c r="L9" s="148">
+      <c r="M9" s="148">
         <v>0.13835616438356163</v>
       </c>
-      <c r="M9" s="148">
+      <c r="N9" s="148">
         <v>1.1529680365296802E-2</v>
       </c>
-      <c r="N9" s="148">
+      <c r="O9" s="148">
         <v>9.9200913242009123E-2</v>
       </c>
-      <c r="O9" s="148">
+      <c r="P9" s="148">
         <v>0.10821917808219178</v>
       </c>
-      <c r="P9" s="148">
+      <c r="Q9" s="148">
         <v>9.0182648401826472E-3</v>
       </c>
-      <c r="Q9" s="148">
+      <c r="R9" s="148">
         <v>0.13812785388127852</v>
       </c>
-      <c r="R9" s="148">
+      <c r="S9" s="148">
         <v>0.15068493150684931</v>
       </c>
-      <c r="S9" s="148">
+      <c r="T9" s="148">
         <v>1.2557077625570776E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>35</v>
       </c>
@@ -8648,97 +8076,103 @@
         <f>SUM(DemTechs_TRA!M19:M24)</f>
         <v>1727.9701023749997</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="F10" s="72">
+        <v>5</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="H10" s="148">
+      <c r="I10" s="148">
         <v>9.417808219178081E-2</v>
       </c>
-      <c r="I10" s="148">
+      <c r="J10" s="148">
         <v>0.10273972602739725</v>
       </c>
-      <c r="J10" s="148">
+      <c r="K10" s="148">
         <v>8.5616438356164379E-3</v>
       </c>
-      <c r="K10" s="148">
+      <c r="L10" s="148">
         <v>0.12682648401826482</v>
       </c>
-      <c r="L10" s="148">
+      <c r="M10" s="148">
         <v>0.13835616438356163</v>
       </c>
-      <c r="M10" s="148">
+      <c r="N10" s="148">
         <v>1.1529680365296802E-2</v>
       </c>
-      <c r="N10" s="148">
+      <c r="O10" s="148">
         <v>9.9200913242009123E-2</v>
       </c>
-      <c r="O10" s="148">
+      <c r="P10" s="148">
         <v>0.10821917808219178</v>
       </c>
-      <c r="P10" s="148">
+      <c r="Q10" s="148">
         <v>9.0182648401826472E-3</v>
       </c>
-      <c r="Q10" s="148">
+      <c r="R10" s="148">
         <v>0.13812785388127852</v>
       </c>
-      <c r="R10" s="148">
+      <c r="S10" s="148">
         <v>0.15068493150684931</v>
       </c>
-      <c r="S10" s="148">
+      <c r="T10" s="148">
         <v>1.2557077625570776E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="G11" s="38"/>
-      <c r="H11" s="147"/>
-      <c r="I11" s="116"/>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="H11" s="38"/>
+      <c r="I11" s="147"/>
+      <c r="J11" s="116"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
       <c r="E12" s="36"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="147"/>
-      <c r="J12" s="116"/>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="F12" s="36"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="147"/>
+      <c r="K12" s="116"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
       <c r="E13" s="10"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="147"/>
-      <c r="J13" s="116"/>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="G14" s="11"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="147"/>
-      <c r="J14" s="116"/>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="F13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="147"/>
+      <c r="K13" s="116"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="H14" s="11"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="147"/>
+      <c r="K14" s="116"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
       <c r="E15" s="10"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="147"/>
-      <c r="J15" s="116"/>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="G16" s="11"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="147"/>
-      <c r="J16" s="116"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G17" s="38"/>
+      <c r="F15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="147"/>
+      <c r="K15" s="116"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="H16" s="11"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="147"/>
+      <c r="K16" s="116"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H17" s="38"/>
       <c r="I17" s="38"/>
       <c r="J17" s="38"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K17" s="38"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="54"/>
       <c r="C23" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="74"/>
       <c r="C24" s="1" t="s">
         <v>157</v>
@@ -8754,7 +8188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A3:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>

--- a/VT_REG2_TRA_V12.xlsx
+++ b/VT_REG2_TRA_V12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\Model_Demo_Adv_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F408D8-F70E-41B7-A1AB-347DCE67963F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F85117-2115-4CBE-BFA8-FF45E261CE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="12735" tabRatio="901" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2145" yWindow="2145" windowWidth="21600" windowHeight="12683" tabRatio="901" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EB2" sheetId="133" r:id="rId1"/>
@@ -1534,7 +1534,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="197">
   <si>
     <t>CommName</t>
   </si>
@@ -4005,7 +4005,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IEA Data"/>
@@ -4496,21 +4496,21 @@
       <selection activeCell="D9" sqref="D9:U9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" customWidth="1"/>
-    <col min="4" max="21" width="10.85546875" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.265625" customWidth="1"/>
+    <col min="4" max="21" width="10.86328125" customWidth="1"/>
+    <col min="22" max="22" width="7.265625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.265625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" s="6" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="X1" s="24" t="s">
         <v>93</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C2" s="7"/>
       <c r="D2" s="51" t="s">
         <v>44</v>
@@ -4594,7 +4594,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="39.4" x14ac:dyDescent="0.4">
       <c r="C3" s="71" t="s">
         <v>124</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B4" s="49"/>
       <c r="C4" s="91" t="s">
         <v>57</v>
@@ -4681,7 +4681,7 @@
       <c r="U4" s="9"/>
       <c r="V4" s="92"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A5" s="6"/>
       <c r="B5" s="53" t="s">
         <v>58</v>
@@ -4748,7 +4748,7 @@
         <v>6582.4117999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A6" s="6"/>
       <c r="B6" s="53" t="s">
         <v>60</v>
@@ -4815,7 +4815,7 @@
         <v>2910.4937500000001</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A7" s="6"/>
       <c r="B7" s="53" t="s">
         <v>62</v>
@@ -4882,7 +4882,7 @@
         <v>6933.7324499999986</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A8" s="6"/>
       <c r="B8" s="53" t="s">
         <v>64</v>
@@ -4949,7 +4949,7 @@
         <v>568.09659999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A9" s="6"/>
       <c r="B9" s="53" t="s">
         <v>66</v>
@@ -5016,7 +5016,7 @@
         <v>7611.8044999999993</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A10" s="6"/>
       <c r="B10" s="53" t="s">
         <v>68</v>
@@ -5083,7 +5083,7 @@
         <v>1054.7498499999992</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A11" s="6"/>
       <c r="B11" s="53" t="s">
         <v>86</v>
@@ -5150,7 +5150,7 @@
         <v>2434.9063500000002</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A12" s="6"/>
       <c r="B12" s="53" t="s">
         <v>87</v>
@@ -5217,7 +5217,7 @@
         <v>1055.546</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A13" s="6"/>
       <c r="B13" s="90" t="s">
         <v>89</v>
@@ -5293,7 +5293,7 @@
         <v>29151.741299999998</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="D14" s="10"/>
       <c r="F14" s="10"/>
@@ -5305,7 +5305,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
       <c r="D15" s="10"/>
       <c r="F15" s="10"/>
@@ -5317,7 +5317,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A16" s="6"/>
       <c r="C16" s="57" t="s">
         <v>154</v>
@@ -5333,7 +5333,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17" s="6"/>
       <c r="D17" s="10"/>
       <c r="F17" s="10"/>
@@ -5345,7 +5345,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
       <c r="D18" s="10"/>
       <c r="F18" s="10"/>
@@ -5357,7 +5357,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="D19" s="10"/>
       <c r="F19" s="10"/>
@@ -5369,7 +5369,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" s="6"/>
       <c r="D20" s="10"/>
       <c r="F20" s="10"/>
@@ -5381,7 +5381,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21" s="6"/>
       <c r="D21" s="10"/>
       <c r="F21" s="10"/>
@@ -5393,7 +5393,7 @@
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A22" s="6"/>
       <c r="D22" s="10"/>
       <c r="F22" s="10"/>
@@ -5405,7 +5405,7 @@
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A23" s="6"/>
       <c r="C23" s="25"/>
       <c r="D23" s="26"/>
@@ -5414,7 +5414,7 @@
       <c r="Q23" s="27"/>
       <c r="R23" s="27"/>
     </row>
-    <row r="24" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" ht="39.4" x14ac:dyDescent="0.4">
       <c r="A24" s="6"/>
       <c r="B24" s="28" t="s">
         <v>102</v>
@@ -5480,7 +5480,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A25" s="6"/>
       <c r="B25" s="100" t="s">
         <v>66</v>
@@ -5524,7 +5524,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A26" s="6"/>
       <c r="B26" s="100" t="s">
         <v>66</v>
@@ -5574,15 +5574,15 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
       <c r="V27" s="8"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
       <c r="V28" s="8"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A29" s="6"/>
       <c r="C29" s="68" t="s">
         <v>106</v>
@@ -5595,7 +5595,7 @@
       </c>
       <c r="V29" s="8"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A30" s="6"/>
       <c r="B30" s="24" t="s">
         <v>117</v>
@@ -5611,7 +5611,7 @@
       </c>
       <c r="V30" s="8"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A31" s="6"/>
       <c r="B31" s="53" t="s">
         <v>66</v>
@@ -5637,20 +5637,20 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" style="29" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="29" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" style="29" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="29"/>
+    <col min="1" max="1" width="1.86328125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="7.73046875" style="29" customWidth="1"/>
+    <col min="3" max="3" width="6.86328125" style="29" customWidth="1"/>
+    <col min="4" max="16384" width="9.1328125" style="29"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="B3" s="120" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="D5" s="121" t="s">
         <v>164</v>
       </c>
@@ -5673,29 +5673,29 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.3984375" customWidth="1"/>
+    <col min="11" max="11" width="7.1328125" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="63" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.140625" customWidth="1"/>
+    <col min="14" max="14" width="6.1328125" customWidth="1"/>
+    <col min="15" max="15" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.1328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B1" s="12" t="s">
         <v>73</v>
       </c>
@@ -5716,7 +5716,7 @@
       </c>
       <c r="H1" s="40"/>
     </row>
-    <row r="2" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B2" s="14" t="str">
         <f>'EB2'!B9</f>
         <v>TRA</v>
@@ -5752,7 +5752,7 @@
       <c r="Q2" s="130"/>
       <c r="R2" s="130"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="J3" s="131" t="s">
         <v>7</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:18" s="6" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" s="6" customFormat="1" ht="22.15" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -5815,7 +5815,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -5844,7 +5844,7 @@
       <c r="Q5" s="134"/>
       <c r="R5" s="134"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -5871,7 +5871,7 @@
       <c r="Q6" s="134"/>
       <c r="R6" s="134"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -5898,7 +5898,7 @@
       <c r="Q7" s="134"/>
       <c r="R7" s="134"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -5925,7 +5925,7 @@
       <c r="Q8" s="134"/>
       <c r="R8" s="134"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -5952,7 +5952,7 @@
       <c r="Q9" s="136"/>
       <c r="R9" s="136"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -5983,11 +5983,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
       <c r="L11" s="32"/>
       <c r="M11" s="34"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="D12" s="5" t="s">
         <v>13</v>
       </c>
@@ -6005,7 +6005,7 @@
       <c r="Q12" s="136"/>
       <c r="R12" s="136"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B13" s="21" t="s">
         <v>1</v>
       </c>
@@ -6055,7 +6055,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:18" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="20" t="s">
         <v>39</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="19" t="s">
         <v>91</v>
       </c>
@@ -6132,7 +6132,7 @@
       <c r="Q15" s="137"/>
       <c r="R15" s="137"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B16" t="str">
         <f t="shared" ref="B16:B21" si="1">L16</f>
         <v>FTE-TRAGAS</v>
@@ -6177,7 +6177,7 @@
       <c r="Q16" s="134"/>
       <c r="R16" s="134"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B17" t="str">
         <f t="shared" si="1"/>
         <v>FTE-TRADSL</v>
@@ -6220,7 +6220,7 @@
       <c r="Q17" s="134"/>
       <c r="R17" s="134"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B18" t="str">
         <f t="shared" si="1"/>
         <v>FTE-TRALPG</v>
@@ -6263,7 +6263,7 @@
       <c r="Q18" s="134"/>
       <c r="R18" s="134"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B19" t="str">
         <f t="shared" si="1"/>
         <v>FTE-TRAGSL</v>
@@ -6306,7 +6306,7 @@
       <c r="Q19" s="134"/>
       <c r="R19" s="134"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B20" t="str">
         <f t="shared" si="1"/>
         <v>FTE-TRABIO</v>
@@ -6349,7 +6349,7 @@
       <c r="Q20" s="134"/>
       <c r="R20" s="134"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B21" t="str">
         <f t="shared" si="1"/>
         <v>FTE-TRAELC</v>
@@ -6394,7 +6394,7 @@
       <c r="Q21" s="134"/>
       <c r="R21" s="134"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -6412,7 +6412,7 @@
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
       <c r="D23" s="38"/>
@@ -6430,7 +6430,7 @@
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B24" s="31"/>
       <c r="C24" s="6"/>
       <c r="D24" s="31"/>
@@ -6448,7 +6448,7 @@
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B25" s="31"/>
       <c r="C25" s="6"/>
       <c r="D25" s="31"/>
@@ -6466,7 +6466,7 @@
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B26" s="31"/>
       <c r="C26" s="6"/>
       <c r="D26" s="31"/>
@@ -6484,7 +6484,7 @@
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B27" s="31"/>
       <c r="C27" s="6"/>
       <c r="D27" s="31"/>
@@ -6502,7 +6502,7 @@
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B28" s="31"/>
       <c r="C28" s="6"/>
       <c r="D28" s="31"/>
@@ -6520,7 +6520,7 @@
       <c r="Q28" s="38"/>
       <c r="R28" s="6"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B29" s="31"/>
       <c r="C29" s="6"/>
       <c r="D29" s="31"/>
@@ -6538,7 +6538,7 @@
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B30" s="32"/>
       <c r="C30" s="6"/>
       <c r="D30" s="31"/>
@@ -6547,7 +6547,7 @@
       <c r="G30" s="82"/>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B31" s="32"/>
       <c r="C31" s="6"/>
       <c r="D31" s="31"/>
@@ -6556,13 +6556,13 @@
       <c r="G31" s="82"/>
       <c r="H31" s="15"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35" s="54"/>
       <c r="C35" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36" s="74"/>
       <c r="C36" s="1" t="s">
         <v>157</v>
@@ -6584,34 +6584,34 @@
       <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.86328125" customWidth="1"/>
+    <col min="5" max="5" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.86328125" customWidth="1"/>
+    <col min="11" max="11" width="13.59765625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="2" style="38" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" customWidth="1"/>
+    <col min="13" max="13" width="13.86328125" customWidth="1"/>
     <col min="14" max="14" width="2" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" customWidth="1"/>
+    <col min="15" max="15" width="12.3984375" customWidth="1"/>
+    <col min="16" max="16" width="7.1328125" customWidth="1"/>
     <col min="17" max="17" width="11" customWidth="1"/>
-    <col min="18" max="18" width="63.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" customWidth="1"/>
+    <col min="18" max="18" width="63.3984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.73046875" customWidth="1"/>
     <col min="20" max="20" width="12" customWidth="1"/>
-    <col min="21" max="21" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.28515625" customWidth="1"/>
+    <col min="21" max="21" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.265625" customWidth="1"/>
     <col min="23" max="23" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B1" s="12" t="s">
         <v>73</v>
       </c>
@@ -6635,7 +6635,7 @@
       </c>
       <c r="I1" s="40"/>
     </row>
-    <row r="2" spans="2:23" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B2" s="14" t="str">
         <f>'EB2'!B9</f>
         <v>TRA</v>
@@ -6674,7 +6674,7 @@
       <c r="V2" s="130"/>
       <c r="W2" s="130"/>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:23" ht="13.15" x14ac:dyDescent="0.4">
       <c r="O3" s="131" t="s">
         <v>7</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:23" s="6" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:23" s="6" customFormat="1" ht="22.15" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -6738,7 +6738,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:23" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:23" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -6765,7 +6765,7 @@
       <c r="V5" s="138"/>
       <c r="W5" s="138"/>
     </row>
-    <row r="6" spans="2:23" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:23" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -6790,7 +6790,7 @@
       <c r="V6" s="138"/>
       <c r="W6" s="138"/>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.35">
       <c r="O7" s="136" t="s">
         <v>105</v>
       </c>
@@ -6812,7 +6812,7 @@
       <c r="V7" s="136"/>
       <c r="W7" s="136"/>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:23" ht="13.15" x14ac:dyDescent="0.4">
       <c r="D9" s="5" t="s">
         <v>13</v>
       </c>
@@ -6832,7 +6832,7 @@
       <c r="V9" s="136"/>
       <c r="W9" s="136"/>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:23" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B10" s="21" t="s">
         <v>1</v>
       </c>
@@ -6895,7 +6895,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:23" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:23" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="20" t="s">
         <v>39</v>
       </c>
@@ -6958,7 +6958,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:23" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="19" t="s">
         <v>91</v>
       </c>
@@ -7003,7 +7003,7 @@
       <c r="V12" s="133"/>
       <c r="W12" s="133"/>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B13" t="str">
         <f t="shared" ref="B13:B24" si="0">Q13</f>
         <v>TCAREGAS</v>
@@ -7067,7 +7067,7 @@
       </c>
       <c r="W13" s="134"/>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B14" t="str">
         <f t="shared" si="0"/>
         <v>TCAREDSL</v>
@@ -7129,7 +7129,7 @@
       </c>
       <c r="W14" s="134"/>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B15" t="str">
         <f t="shared" si="0"/>
         <v>TCARELPG</v>
@@ -7191,7 +7191,7 @@
       </c>
       <c r="W15" s="134"/>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B16" t="str">
         <f t="shared" si="0"/>
         <v>TCAREGSL</v>
@@ -7253,7 +7253,7 @@
       </c>
       <c r="W16" s="134"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B17" t="str">
         <f>Q17</f>
         <v>TCAREBIO</v>
@@ -7315,7 +7315,7 @@
       </c>
       <c r="W17" s="134"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B18" s="27" t="str">
         <f t="shared" si="0"/>
         <v>TCAREELC</v>
@@ -7378,7 +7378,7 @@
       </c>
       <c r="W18" s="140"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B19" t="str">
         <f t="shared" si="0"/>
         <v>TPUBEGAS</v>
@@ -7440,7 +7440,7 @@
       </c>
       <c r="W19" s="134"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B20" t="str">
         <f t="shared" si="0"/>
         <v>TPUBEDSL</v>
@@ -7502,7 +7502,7 @@
       </c>
       <c r="W20" s="134"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B21" t="str">
         <f t="shared" si="0"/>
         <v>TPUBELPG</v>
@@ -7564,7 +7564,7 @@
       </c>
       <c r="W21" s="134"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B22" t="str">
         <f t="shared" si="0"/>
         <v>TPUBEGSL</v>
@@ -7626,7 +7626,7 @@
       </c>
       <c r="W22" s="134"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B23" t="str">
         <f>Q23</f>
         <v>TPUBEBIO</v>
@@ -7688,7 +7688,7 @@
       </c>
       <c r="W23" s="134"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B24" s="27" t="str">
         <f t="shared" si="0"/>
         <v>TPUBEELC</v>
@@ -7750,7 +7750,7 @@
       </c>
       <c r="W24" s="140"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
@@ -7761,7 +7761,7 @@
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B27" s="54"/>
       <c r="C27" s="1" t="s">
         <v>156</v>
@@ -7770,7 +7770,7 @@
       <c r="L27" s="11"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B28" s="74"/>
       <c r="C28" s="1" t="s">
         <v>157</v>
@@ -7780,14 +7780,14 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29" s="8"/>
       <c r="K29" s="1"/>
       <c r="L29" s="11"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -7812,11 +7812,11 @@
       <c r="V30"/>
       <c r="W30"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="E31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="E32" s="1"/>
     </row>
   </sheetData>
@@ -7831,22 +7831,22 @@
   <dimension ref="B1:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" customWidth="1"/>
+    <col min="3" max="3" width="13.1328125" customWidth="1"/>
+    <col min="4" max="4" width="11.59765625" customWidth="1"/>
+    <col min="5" max="5" width="11.265625" customWidth="1"/>
     <col min="6" max="7" width="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="21" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="21" width="4.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B1" s="12" t="s">
         <v>73</v>
       </c>
@@ -7864,7 +7864,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B2" s="14" t="s">
         <v>83</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>M€2005</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:20" ht="13.15" x14ac:dyDescent="0.4">
       <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
@@ -7892,7 +7892,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:20" ht="13.15" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>80</v>
       </c>
@@ -7948,7 +7948,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="2:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:20" ht="20.65" x14ac:dyDescent="0.35">
       <c r="B7" s="20" t="s">
         <v>81</v>
       </c>
@@ -7965,20 +7965,8 @@
       <c r="H7" s="145" t="s">
         <v>192</v>
       </c>
-      <c r="I7" s="145"/>
-      <c r="J7" s="145"/>
-      <c r="K7" s="145"/>
-      <c r="L7" s="145"/>
-      <c r="M7" s="145"/>
-      <c r="N7" s="145"/>
-      <c r="O7" s="145"/>
-      <c r="P7" s="145"/>
-      <c r="Q7" s="145"/>
-      <c r="R7" s="145"/>
-      <c r="S7" s="145"/>
-      <c r="T7" s="145"/>
-    </row>
-    <row r="8" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="19" t="s">
         <v>91</v>
       </c>
@@ -7989,21 +7977,11 @@
         <v>BPkm</v>
       </c>
       <c r="F8" s="150"/>
-      <c r="H8" s="144"/>
-      <c r="I8" s="144"/>
-      <c r="J8" s="144"/>
-      <c r="K8" s="144"/>
-      <c r="L8" s="144"/>
-      <c r="M8" s="144"/>
-      <c r="N8" s="144"/>
-      <c r="O8" s="144"/>
-      <c r="P8" s="144"/>
-      <c r="Q8" s="144"/>
-      <c r="R8" s="144"/>
-      <c r="S8" s="144"/>
-      <c r="T8" s="144"/>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="H8" s="144" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B9" s="8" t="s">
         <v>35</v>
       </c>
@@ -8061,7 +8039,7 @@
         <v>1.2557077625570776E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B10" s="8" t="s">
         <v>35</v>
       </c>
@@ -8119,12 +8097,12 @@
         <v>1.2557077625570776E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.35">
       <c r="H11" s="38"/>
       <c r="I11" s="147"/>
       <c r="J11" s="116"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.35">
       <c r="E12" s="36"/>
       <c r="F12" s="36"/>
       <c r="H12" s="11"/>
@@ -8132,7 +8110,7 @@
       <c r="J12" s="147"/>
       <c r="K12" s="116"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="H13" s="11"/>
@@ -8140,13 +8118,13 @@
       <c r="J13" s="147"/>
       <c r="K13" s="116"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.35">
       <c r="H14" s="11"/>
       <c r="I14" s="38"/>
       <c r="J14" s="147"/>
       <c r="K14" s="116"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.35">
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="H15" s="11"/>
@@ -8154,25 +8132,25 @@
       <c r="J15" s="147"/>
       <c r="K15" s="116"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.35">
       <c r="H16" s="11"/>
       <c r="I16" s="38"/>
       <c r="J16" s="147"/>
       <c r="K16" s="116"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
       <c r="H17" s="38"/>
       <c r="I17" s="38"/>
       <c r="J17" s="38"/>
       <c r="K17" s="38"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B23" s="54"/>
       <c r="C23" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B24" s="74"/>
       <c r="C24" s="1" t="s">
         <v>157</v>
@@ -8192,12 +8170,12 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="45" t="s">
         <v>147</v>
       </c>
@@ -8208,7 +8186,7 @@
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:9" s="6" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="6" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="46"/>
       <c r="C4" s="46"/>
       <c r="D4" s="46"/>
@@ -8216,7 +8194,7 @@
       <c r="F4" s="46"/>
       <c r="G4" s="46"/>
     </row>
-    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="17.25" x14ac:dyDescent="0.45">
       <c r="B5" s="43" t="s">
         <v>196</v>
       </c>
@@ -8224,7 +8202,7 @@
       <c r="G5" s="38"/>
       <c r="H5" s="38"/>
     </row>
-    <row r="6" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>194</v>
       </c>
@@ -8251,7 +8229,7 @@
       <c r="H6" s="47"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
         <v>91</v>
       </c>
@@ -8271,7 +8249,7 @@
       <c r="H7" s="115"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>195</v>
       </c>
@@ -8295,21 +8273,21 @@
       <c r="H8" s="116"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G10" s="38"/>
       <c r="H10" s="38"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B23" s="54"/>
       <c r="C23" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" s="74"/>
       <c r="C24" s="1" t="s">
         <v>157</v>

--- a/VT_REG2_TRA_V12.xlsx
+++ b/VT_REG2_TRA_V12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\Model_Demo_Adv_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F85117-2115-4CBE-BFA8-FF45E261CE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953959BF-F346-4361-A37B-6D15DB1E97C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="2145" windowWidth="21600" windowHeight="12683" tabRatio="901" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EB2" sheetId="133" r:id="rId1"/>
@@ -1534,7 +1534,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="208">
   <si>
     <t>CommName</t>
   </si>
@@ -2125,6 +2125,39 @@
   </si>
   <si>
     <t>~PRCCOMEMI</t>
+  </si>
+  <si>
+    <t>TRAGAS</t>
+  </si>
+  <si>
+    <t>COM_PROJ</t>
+  </si>
+  <si>
+    <t>TCAR_TEST-bad</t>
+  </si>
+  <si>
+    <t>TCAR_TEST-good</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>TRABIO</t>
+  </si>
+  <si>
+    <t>TRAELC</t>
+  </si>
+  <si>
+    <t>DTCAR_test</t>
+  </si>
+  <si>
+    <t>to test FI_T behavior</t>
+  </si>
+  <si>
+    <t>Test FI_T issue - does not work</t>
+  </si>
+  <si>
+    <t>Test FI_T issue - works</t>
   </si>
 </sst>
 </file>
@@ -6578,10 +6611,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:W32"/>
+  <dimension ref="A1:W48"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -7819,6 +7852,215 @@
     <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="E32" s="1"/>
     </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" t="s">
+        <v>204</v>
+      </c>
+      <c r="E35" t="s">
+        <v>205</v>
+      </c>
+      <c r="F35" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="O38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" t="s">
+        <v>198</v>
+      </c>
+      <c r="L39"/>
+      <c r="O39" t="s">
+        <v>11</v>
+      </c>
+      <c r="P39" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>1</v>
+      </c>
+      <c r="R39" t="s">
+        <v>2</v>
+      </c>
+      <c r="S39" t="s">
+        <v>16</v>
+      </c>
+      <c r="T39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>199</v>
+      </c>
+      <c r="C40" t="s">
+        <v>197</v>
+      </c>
+      <c r="D40" t="s">
+        <v>204</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="L40"/>
+      <c r="O40" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q40" t="str">
+        <f>B40</f>
+        <v>TCAR_TEST-bad</v>
+      </c>
+      <c r="R40" t="s">
+        <v>206</v>
+      </c>
+      <c r="S40" t="s">
+        <v>180</v>
+      </c>
+      <c r="T40" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="C41" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="C42" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="D44" t="s">
+        <v>13</v>
+      </c>
+      <c r="O44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" t="s">
+        <v>198</v>
+      </c>
+      <c r="F45" t="s">
+        <v>201</v>
+      </c>
+      <c r="L45"/>
+      <c r="O45" t="s">
+        <v>11</v>
+      </c>
+      <c r="P45" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>1</v>
+      </c>
+      <c r="R45" t="s">
+        <v>2</v>
+      </c>
+      <c r="S45" t="s">
+        <v>16</v>
+      </c>
+      <c r="T45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>200</v>
+      </c>
+      <c r="C46" t="s">
+        <v>197</v>
+      </c>
+      <c r="D46" t="s">
+        <v>204</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="L46"/>
+      <c r="O46" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q46" t="str">
+        <f>B46</f>
+        <v>TCAR_TEST-good</v>
+      </c>
+      <c r="R46" t="s">
+        <v>207</v>
+      </c>
+      <c r="S46" t="s">
+        <v>180</v>
+      </c>
+      <c r="T46" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="C47" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="C48" t="s">
+        <v>203</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7830,7 +8072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>

--- a/VT_REG2_TRA_V12.xlsx
+++ b/VT_REG2_TRA_V12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\Model_Demo_Adv_Veda_Jun2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F408D8-F70E-41B7-A1AB-347DCE67963F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4C7ABD-AD2E-46FC-97C7-F980EAD8644A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="12735" tabRatio="901" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1837" yWindow="1837" windowWidth="21600" windowHeight="12683" tabRatio="901" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EB2" sheetId="133" r:id="rId1"/>
@@ -2115,9 +2115,6 @@
     <t>*Demand Commodity Name</t>
   </si>
   <si>
-    <t>~FI_T:COM_FR</t>
-  </si>
-  <si>
     <t>Techname</t>
   </si>
   <si>
@@ -2125,6 +2122,9 @@
   </si>
   <si>
     <t>~PRCCOMEMI</t>
+  </si>
+  <si>
+    <t>DeACT FI_T:COM_FR</t>
   </si>
 </sst>
 </file>
@@ -4005,7 +4005,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IEA Data"/>
@@ -4496,21 +4496,21 @@
       <selection activeCell="D9" sqref="D9:U9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" customWidth="1"/>
-    <col min="4" max="21" width="10.85546875" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.265625" customWidth="1"/>
+    <col min="4" max="21" width="10.86328125" customWidth="1"/>
+    <col min="22" max="22" width="7.265625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.265625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" s="6" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="X1" s="24" t="s">
         <v>93</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C2" s="7"/>
       <c r="D2" s="51" t="s">
         <v>44</v>
@@ -4594,7 +4594,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="39.4" x14ac:dyDescent="0.4">
       <c r="C3" s="71" t="s">
         <v>124</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B4" s="49"/>
       <c r="C4" s="91" t="s">
         <v>57</v>
@@ -4681,7 +4681,7 @@
       <c r="U4" s="9"/>
       <c r="V4" s="92"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A5" s="6"/>
       <c r="B5" s="53" t="s">
         <v>58</v>
@@ -4748,7 +4748,7 @@
         <v>6582.4117999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A6" s="6"/>
       <c r="B6" s="53" t="s">
         <v>60</v>
@@ -4815,7 +4815,7 @@
         <v>2910.4937500000001</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A7" s="6"/>
       <c r="B7" s="53" t="s">
         <v>62</v>
@@ -4882,7 +4882,7 @@
         <v>6933.7324499999986</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A8" s="6"/>
       <c r="B8" s="53" t="s">
         <v>64</v>
@@ -4949,7 +4949,7 @@
         <v>568.09659999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A9" s="6"/>
       <c r="B9" s="53" t="s">
         <v>66</v>
@@ -5016,7 +5016,7 @@
         <v>7611.8044999999993</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A10" s="6"/>
       <c r="B10" s="53" t="s">
         <v>68</v>
@@ -5083,7 +5083,7 @@
         <v>1054.7498499999992</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A11" s="6"/>
       <c r="B11" s="53" t="s">
         <v>86</v>
@@ -5150,7 +5150,7 @@
         <v>2434.9063500000002</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A12" s="6"/>
       <c r="B12" s="53" t="s">
         <v>87</v>
@@ -5217,7 +5217,7 @@
         <v>1055.546</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A13" s="6"/>
       <c r="B13" s="90" t="s">
         <v>89</v>
@@ -5293,7 +5293,7 @@
         <v>29151.741299999998</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="D14" s="10"/>
       <c r="F14" s="10"/>
@@ -5305,7 +5305,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
       <c r="D15" s="10"/>
       <c r="F15" s="10"/>
@@ -5317,7 +5317,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A16" s="6"/>
       <c r="C16" s="57" t="s">
         <v>154</v>
@@ -5333,7 +5333,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17" s="6"/>
       <c r="D17" s="10"/>
       <c r="F17" s="10"/>
@@ -5345,7 +5345,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
       <c r="D18" s="10"/>
       <c r="F18" s="10"/>
@@ -5357,7 +5357,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="D19" s="10"/>
       <c r="F19" s="10"/>
@@ -5369,7 +5369,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" s="6"/>
       <c r="D20" s="10"/>
       <c r="F20" s="10"/>
@@ -5381,7 +5381,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21" s="6"/>
       <c r="D21" s="10"/>
       <c r="F21" s="10"/>
@@ -5393,7 +5393,7 @@
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A22" s="6"/>
       <c r="D22" s="10"/>
       <c r="F22" s="10"/>
@@ -5405,7 +5405,7 @@
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A23" s="6"/>
       <c r="C23" s="25"/>
       <c r="D23" s="26"/>
@@ -5414,7 +5414,7 @@
       <c r="Q23" s="27"/>
       <c r="R23" s="27"/>
     </row>
-    <row r="24" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" ht="39.4" x14ac:dyDescent="0.4">
       <c r="A24" s="6"/>
       <c r="B24" s="28" t="s">
         <v>102</v>
@@ -5480,7 +5480,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A25" s="6"/>
       <c r="B25" s="100" t="s">
         <v>66</v>
@@ -5524,7 +5524,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A26" s="6"/>
       <c r="B26" s="100" t="s">
         <v>66</v>
@@ -5574,15 +5574,15 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
       <c r="V27" s="8"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
       <c r="V28" s="8"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A29" s="6"/>
       <c r="C29" s="68" t="s">
         <v>106</v>
@@ -5595,7 +5595,7 @@
       </c>
       <c r="V29" s="8"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A30" s="6"/>
       <c r="B30" s="24" t="s">
         <v>117</v>
@@ -5611,7 +5611,7 @@
       </c>
       <c r="V30" s="8"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A31" s="6"/>
       <c r="B31" s="53" t="s">
         <v>66</v>
@@ -5637,20 +5637,20 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" style="29" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="29" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" style="29" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="29"/>
+    <col min="1" max="1" width="1.86328125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="7.73046875" style="29" customWidth="1"/>
+    <col min="3" max="3" width="6.86328125" style="29" customWidth="1"/>
+    <col min="4" max="16384" width="9.1328125" style="29"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="B3" s="120" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="D5" s="121" t="s">
         <v>164</v>
       </c>
@@ -5673,29 +5673,29 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.3984375" customWidth="1"/>
+    <col min="11" max="11" width="7.1328125" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="63" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.140625" customWidth="1"/>
+    <col min="14" max="14" width="6.1328125" customWidth="1"/>
+    <col min="15" max="15" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.1328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B1" s="12" t="s">
         <v>73</v>
       </c>
@@ -5716,7 +5716,7 @@
       </c>
       <c r="H1" s="40"/>
     </row>
-    <row r="2" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B2" s="14" t="str">
         <f>'EB2'!B9</f>
         <v>TRA</v>
@@ -5752,7 +5752,7 @@
       <c r="Q2" s="130"/>
       <c r="R2" s="130"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="J3" s="131" t="s">
         <v>7</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:18" s="6" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" s="6" customFormat="1" ht="22.15" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -5815,7 +5815,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -5844,7 +5844,7 @@
       <c r="Q5" s="134"/>
       <c r="R5" s="134"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -5871,7 +5871,7 @@
       <c r="Q6" s="134"/>
       <c r="R6" s="134"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -5898,7 +5898,7 @@
       <c r="Q7" s="134"/>
       <c r="R7" s="134"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -5925,7 +5925,7 @@
       <c r="Q8" s="134"/>
       <c r="R8" s="134"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -5952,7 +5952,7 @@
       <c r="Q9" s="136"/>
       <c r="R9" s="136"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -5983,11 +5983,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
       <c r="L11" s="32"/>
       <c r="M11" s="34"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="D12" s="5" t="s">
         <v>13</v>
       </c>
@@ -6005,7 +6005,7 @@
       <c r="Q12" s="136"/>
       <c r="R12" s="136"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B13" s="21" t="s">
         <v>1</v>
       </c>
@@ -6055,7 +6055,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:18" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="20" t="s">
         <v>39</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="19" t="s">
         <v>91</v>
       </c>
@@ -6132,7 +6132,7 @@
       <c r="Q15" s="137"/>
       <c r="R15" s="137"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B16" t="str">
         <f t="shared" ref="B16:B21" si="1">L16</f>
         <v>FTE-TRAGAS</v>
@@ -6177,7 +6177,7 @@
       <c r="Q16" s="134"/>
       <c r="R16" s="134"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B17" t="str">
         <f t="shared" si="1"/>
         <v>FTE-TRADSL</v>
@@ -6220,7 +6220,7 @@
       <c r="Q17" s="134"/>
       <c r="R17" s="134"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B18" t="str">
         <f t="shared" si="1"/>
         <v>FTE-TRALPG</v>
@@ -6263,7 +6263,7 @@
       <c r="Q18" s="134"/>
       <c r="R18" s="134"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B19" t="str">
         <f t="shared" si="1"/>
         <v>FTE-TRAGSL</v>
@@ -6306,7 +6306,7 @@
       <c r="Q19" s="134"/>
       <c r="R19" s="134"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B20" t="str">
         <f t="shared" si="1"/>
         <v>FTE-TRABIO</v>
@@ -6349,7 +6349,7 @@
       <c r="Q20" s="134"/>
       <c r="R20" s="134"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B21" t="str">
         <f t="shared" si="1"/>
         <v>FTE-TRAELC</v>
@@ -6394,7 +6394,7 @@
       <c r="Q21" s="134"/>
       <c r="R21" s="134"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -6412,7 +6412,7 @@
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
       <c r="D23" s="38"/>
@@ -6430,7 +6430,7 @@
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B24" s="31"/>
       <c r="C24" s="6"/>
       <c r="D24" s="31"/>
@@ -6448,7 +6448,7 @@
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B25" s="31"/>
       <c r="C25" s="6"/>
       <c r="D25" s="31"/>
@@ -6466,7 +6466,7 @@
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B26" s="31"/>
       <c r="C26" s="6"/>
       <c r="D26" s="31"/>
@@ -6484,7 +6484,7 @@
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B27" s="31"/>
       <c r="C27" s="6"/>
       <c r="D27" s="31"/>
@@ -6502,7 +6502,7 @@
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B28" s="31"/>
       <c r="C28" s="6"/>
       <c r="D28" s="31"/>
@@ -6520,7 +6520,7 @@
       <c r="Q28" s="38"/>
       <c r="R28" s="6"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B29" s="31"/>
       <c r="C29" s="6"/>
       <c r="D29" s="31"/>
@@ -6538,7 +6538,7 @@
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B30" s="32"/>
       <c r="C30" s="6"/>
       <c r="D30" s="31"/>
@@ -6547,7 +6547,7 @@
       <c r="G30" s="82"/>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B31" s="32"/>
       <c r="C31" s="6"/>
       <c r="D31" s="31"/>
@@ -6556,13 +6556,13 @@
       <c r="G31" s="82"/>
       <c r="H31" s="15"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35" s="54"/>
       <c r="C35" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36" s="74"/>
       <c r="C36" s="1" t="s">
         <v>157</v>
@@ -6584,34 +6584,34 @@
       <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.86328125" customWidth="1"/>
+    <col min="5" max="5" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.86328125" customWidth="1"/>
+    <col min="11" max="11" width="13.59765625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="2" style="38" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" customWidth="1"/>
+    <col min="13" max="13" width="13.86328125" customWidth="1"/>
     <col min="14" max="14" width="2" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" customWidth="1"/>
+    <col min="15" max="15" width="12.3984375" customWidth="1"/>
+    <col min="16" max="16" width="7.1328125" customWidth="1"/>
     <col min="17" max="17" width="11" customWidth="1"/>
-    <col min="18" max="18" width="63.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" customWidth="1"/>
+    <col min="18" max="18" width="63.3984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.73046875" customWidth="1"/>
     <col min="20" max="20" width="12" customWidth="1"/>
-    <col min="21" max="21" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.28515625" customWidth="1"/>
+    <col min="21" max="21" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.265625" customWidth="1"/>
     <col min="23" max="23" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B1" s="12" t="s">
         <v>73</v>
       </c>
@@ -6635,7 +6635,7 @@
       </c>
       <c r="I1" s="40"/>
     </row>
-    <row r="2" spans="2:23" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B2" s="14" t="str">
         <f>'EB2'!B9</f>
         <v>TRA</v>
@@ -6674,7 +6674,7 @@
       <c r="V2" s="130"/>
       <c r="W2" s="130"/>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:23" ht="13.15" x14ac:dyDescent="0.4">
       <c r="O3" s="131" t="s">
         <v>7</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:23" s="6" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:23" s="6" customFormat="1" ht="22.15" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -6738,7 +6738,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:23" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:23" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -6765,7 +6765,7 @@
       <c r="V5" s="138"/>
       <c r="W5" s="138"/>
     </row>
-    <row r="6" spans="2:23" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:23" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -6790,7 +6790,7 @@
       <c r="V6" s="138"/>
       <c r="W6" s="138"/>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.35">
       <c r="O7" s="136" t="s">
         <v>105</v>
       </c>
@@ -6812,7 +6812,7 @@
       <c r="V7" s="136"/>
       <c r="W7" s="136"/>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:23" ht="13.15" x14ac:dyDescent="0.4">
       <c r="D9" s="5" t="s">
         <v>13</v>
       </c>
@@ -6832,7 +6832,7 @@
       <c r="V9" s="136"/>
       <c r="W9" s="136"/>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:23" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B10" s="21" t="s">
         <v>1</v>
       </c>
@@ -6895,7 +6895,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:23" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:23" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="20" t="s">
         <v>39</v>
       </c>
@@ -6958,7 +6958,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:23" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="19" t="s">
         <v>91</v>
       </c>
@@ -7003,7 +7003,7 @@
       <c r="V12" s="133"/>
       <c r="W12" s="133"/>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B13" t="str">
         <f t="shared" ref="B13:B24" si="0">Q13</f>
         <v>TCAREGAS</v>
@@ -7067,7 +7067,7 @@
       </c>
       <c r="W13" s="134"/>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B14" t="str">
         <f t="shared" si="0"/>
         <v>TCAREDSL</v>
@@ -7129,7 +7129,7 @@
       </c>
       <c r="W14" s="134"/>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B15" t="str">
         <f t="shared" si="0"/>
         <v>TCARELPG</v>
@@ -7191,7 +7191,7 @@
       </c>
       <c r="W15" s="134"/>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B16" t="str">
         <f t="shared" si="0"/>
         <v>TCAREGSL</v>
@@ -7253,7 +7253,7 @@
       </c>
       <c r="W16" s="134"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B17" t="str">
         <f>Q17</f>
         <v>TCAREBIO</v>
@@ -7315,7 +7315,7 @@
       </c>
       <c r="W17" s="134"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B18" s="27" t="str">
         <f t="shared" si="0"/>
         <v>TCAREELC</v>
@@ -7378,7 +7378,7 @@
       </c>
       <c r="W18" s="140"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B19" t="str">
         <f t="shared" si="0"/>
         <v>TPUBEGAS</v>
@@ -7440,7 +7440,7 @@
       </c>
       <c r="W19" s="134"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B20" t="str">
         <f t="shared" si="0"/>
         <v>TPUBEDSL</v>
@@ -7502,7 +7502,7 @@
       </c>
       <c r="W20" s="134"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B21" t="str">
         <f t="shared" si="0"/>
         <v>TPUBELPG</v>
@@ -7564,7 +7564,7 @@
       </c>
       <c r="W21" s="134"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B22" t="str">
         <f t="shared" si="0"/>
         <v>TPUBEGSL</v>
@@ -7626,7 +7626,7 @@
       </c>
       <c r="W22" s="134"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B23" t="str">
         <f>Q23</f>
         <v>TPUBEBIO</v>
@@ -7688,7 +7688,7 @@
       </c>
       <c r="W23" s="134"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B24" s="27" t="str">
         <f t="shared" si="0"/>
         <v>TPUBEELC</v>
@@ -7750,7 +7750,7 @@
       </c>
       <c r="W24" s="140"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
@@ -7761,7 +7761,7 @@
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B27" s="54"/>
       <c r="C27" s="1" t="s">
         <v>156</v>
@@ -7770,7 +7770,7 @@
       <c r="L27" s="11"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B28" s="74"/>
       <c r="C28" s="1" t="s">
         <v>157</v>
@@ -7780,14 +7780,14 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29" s="8"/>
       <c r="K29" s="1"/>
       <c r="L29" s="11"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -7812,11 +7812,11 @@
       <c r="V30"/>
       <c r="W30"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="E31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="E32" s="1"/>
     </row>
   </sheetData>
@@ -7831,22 +7831,22 @@
   <dimension ref="B1:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" customWidth="1"/>
+    <col min="3" max="3" width="13.1328125" customWidth="1"/>
+    <col min="4" max="4" width="11.59765625" customWidth="1"/>
+    <col min="5" max="5" width="11.265625" customWidth="1"/>
     <col min="6" max="7" width="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="21" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="21" width="4.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B1" s="12" t="s">
         <v>73</v>
       </c>
@@ -7864,7 +7864,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B2" s="14" t="s">
         <v>83</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>M€2005</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:20" ht="13.15" x14ac:dyDescent="0.4">
       <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
@@ -7888,11 +7888,11 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="H5" s="3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:20" ht="13.15" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>80</v>
       </c>
@@ -7948,7 +7948,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="2:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:20" ht="20.65" x14ac:dyDescent="0.35">
       <c r="B7" s="20" t="s">
         <v>81</v>
       </c>
@@ -7978,7 +7978,7 @@
       <c r="S7" s="145"/>
       <c r="T7" s="145"/>
     </row>
-    <row r="8" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="19" t="s">
         <v>91</v>
       </c>
@@ -8003,7 +8003,7 @@
       <c r="S8" s="144"/>
       <c r="T8" s="144"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B9" s="8" t="s">
         <v>35</v>
       </c>
@@ -8061,7 +8061,7 @@
         <v>1.2557077625570776E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B10" s="8" t="s">
         <v>35</v>
       </c>
@@ -8119,12 +8119,12 @@
         <v>1.2557077625570776E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.35">
       <c r="H11" s="38"/>
       <c r="I11" s="147"/>
       <c r="J11" s="116"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.35">
       <c r="E12" s="36"/>
       <c r="F12" s="36"/>
       <c r="H12" s="11"/>
@@ -8132,7 +8132,7 @@
       <c r="J12" s="147"/>
       <c r="K12" s="116"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="H13" s="11"/>
@@ -8140,13 +8140,13 @@
       <c r="J13" s="147"/>
       <c r="K13" s="116"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.35">
       <c r="H14" s="11"/>
       <c r="I14" s="38"/>
       <c r="J14" s="147"/>
       <c r="K14" s="116"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.35">
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="H15" s="11"/>
@@ -8154,25 +8154,25 @@
       <c r="J15" s="147"/>
       <c r="K15" s="116"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.35">
       <c r="H16" s="11"/>
       <c r="I16" s="38"/>
       <c r="J16" s="147"/>
       <c r="K16" s="116"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
       <c r="H17" s="38"/>
       <c r="I17" s="38"/>
       <c r="J17" s="38"/>
       <c r="K17" s="38"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B23" s="54"/>
       <c r="C23" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B24" s="74"/>
       <c r="C24" s="1" t="s">
         <v>157</v>
@@ -8192,12 +8192,12 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="45" t="s">
         <v>147</v>
       </c>
@@ -8208,7 +8208,7 @@
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:9" s="6" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="6" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="46"/>
       <c r="C4" s="46"/>
       <c r="D4" s="46"/>
@@ -8216,17 +8216,17 @@
       <c r="F4" s="46"/>
       <c r="G4" s="46"/>
     </row>
-    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="17.25" x14ac:dyDescent="0.45">
       <c r="B5" s="43" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C5" s="44"/>
       <c r="G5" s="38"/>
       <c r="H5" s="38"/>
     </row>
-    <row r="6" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B6" s="48" t="s">
         <v>0</v>
@@ -8251,7 +8251,7 @@
       <c r="H6" s="47"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
         <v>91</v>
       </c>
@@ -8271,9 +8271,9 @@
       <c r="H7" s="115"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B8" s="47" t="str">
         <f>DemTechs_TRA!Q7</f>
@@ -8295,21 +8295,21 @@
       <c r="H8" s="116"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G10" s="38"/>
       <c r="H10" s="38"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B23" s="54"/>
       <c r="C23" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" s="74"/>
       <c r="C24" s="1" t="s">
         <v>157</v>
